--- a/test-case/test-case swapi.co.xlsx
+++ b/test-case/test-case swapi.co.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Ожидаемый результат</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Переходим по URL -адресу https://swapi.co/api/planets/23/</t>
   </si>
   <si>
-    <t>Поля "title" = "A New Hope", "director" = "George Lucas", "characters" - содержит URL-адреса всех персонажей которые находились в фильме, "starships" - содержит URL-адреса звездалётов, которые находились в фильме.</t>
-  </si>
-  <si>
     <t>Код ответа: 200, поля "name" =  "Kalee", "orbital_period" = "378"(если не известно - "unknown"), "gravity" = "1""population": "4000000000", ""residents" - массив URL-адресов персонажей, которые  живут на этой планете</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>Номер теста</t>
-  </si>
-  <si>
-    <t>Представлена схема JSON для ресурса "planets", где описоны поля, формат и их тип</t>
   </si>
   <si>
     <t>OPTIONS</t>
@@ -76,36 +70,61 @@
     <t>Переходим по URL -адресу https://swapi.co/api/film/</t>
   </si>
   <si>
-    <t>Поля: name": "Film List", description" - пустая строка, "renders" = ["application/json","text/html", "application/json"], "parses" = ["application/json",
+    <t>Переходим по URL -адресу https://swapi.co/api/vehicles/4/</t>
+  </si>
+  <si>
+    <t>Описание теста</t>
+  </si>
+  <si>
+    <t>Код ответа: 200, поля "name" =  "Death Star", "max_atmosphering_speed" = "n/a", "cargo_capacity" = "1000000000000", "pilot" - массив URL-адресов пилотов, которые пилотировали этот звездолет (пустой массив, если не известно)</t>
+  </si>
+  <si>
+    <t>Код ответа: 200, поля "name" =  "X-wing", "manufacturer" = "Incom Corporation", "cargo_capacity" = "110", "pilot" - массив URL-адресов пилотов, которые пилотировали этот звездолет (пустой массив, если не известно)</t>
+  </si>
+  <si>
+    <t>Код ответа: 200, поля "name" =  "Sand Crawler", "max_atmosphering_speed" = "30", "cargo_capacity" = "50000", "vehicle_class" = "wheeled", "pilot" - массив URL-адресов пилотов, которые пилотировали этот звездолет (пустой массив, если не известно), "films" - массив URL-адресов фильмов, в котором появился этот транспорт</t>
+  </si>
+  <si>
+    <t>Поле "name" = "Luke Skywalker", "gender" = "male"("n/a"- если нет пола), "homeworld" = "https://swapi.co/api/planets/1/"(URL-адрес планеты, на которой этот персонаж родился или обитает)</t>
+  </si>
+  <si>
+    <t>Переходим по URL -адресу https://swapi.co/api/planets/5/</t>
+  </si>
+  <si>
+    <t>Представлена схема JSON для ресурса "planets", где поля: "edited", "created", "url" имеют свойств, такие как: "type", "format", "description", а все остальные поля имеют только "type" и "description"</t>
+  </si>
+  <si>
+    <t>Переходим по URL -адресу https://swapi.co/api/people/?search=r5</t>
+  </si>
+  <si>
+    <t>Поля: "name" = "Film List", "description" - пустая строка, "renders" = ["application/json","text/html", "application/json"], "parses" = ["application/json",
 "application/x-www-form-urlencoded", "multipart/form-data"]</t>
   </si>
   <si>
-    <t>Переходим по URL -адресу https://swapi.co/api/vehicles/4/</t>
-  </si>
-  <si>
-    <t>Описание теста</t>
-  </si>
-  <si>
-    <t>Код ответа: 200, поля "name" =  "Death Star", "max_atmosphering_speed" = "n/a", "cargo_capacity" = "1000000000000", "pilot" - массив URL-адресов пилотов, которые пилотировали этот звездолет (пустой массив, если не известно)</t>
-  </si>
-  <si>
-    <t>Код ответа: 200, поля "name" =  "X-wing", "manufacturer" = "Incom Corporation", "cargo_capacity" = "110", "pilot" - массив URL-адресов пилотов, которые пилотировали этот звездолет (пустой массив, если не известно)</t>
-  </si>
-  <si>
-    <t>Код ответа: 200, поля "name" =  "Sand Crawler", "max_atmosphering_speed" = "30", "cargo_capacity" = "50000", "vehicle_class" = "wheeled", "pilot" - массив URL-адресов пилотов, которые пилотировали этот звездолет (пустой массив, если не известно), "films" - массив URL-адресов фильмов, в котором появился этот транспорт</t>
-  </si>
-  <si>
-    <t>Поле "name" = "Luke Skywalker", "gender" = "male"("n/a"- если нет пола), "homeworld" = "https://swapi.co/api/planets/1/"(URL-адрес планеты, на которой этот персонаж родился или обитает)</t>
-  </si>
-  <si>
-    <t>Переходим по URL -адресу https://swapi.co/api/planets/5/</t>
+    <t>Поля: "count" = "1", "next" = "null", "previous" = "null", "results" - содержит информацию об искомом объекте</t>
+  </si>
+  <si>
+    <t>Переходим по URL -адресу https://swapi.co/api/people/3/?format=wookiee</t>
+  </si>
+  <si>
+    <t>Все поля должны быть переведена в кодировку "wookiee"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переходим по URL -адресу https://swapi.co/api/species/5/
+</t>
+  </si>
+  <si>
+    <t>Код ответа: 200, поля "name" =  "Hutt", "skin_colors" = "green, brown, tan", "eye_colors" = "yellow, red", "homeworld" = "https://swapi.co/api/planets/24/", "films" - массив URL-адресов фильма, в котором появился этот вид (пустой массив, если не известно)</t>
+  </si>
+  <si>
+    <t>Поля "title" = "A New Hope", "director" = "George Lucas", "characters" - содержит URL-адреса всех персонажей которые находились в фильме, "starships" - содержит URL-адреса звездолётов, которые находились в фильме.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +141,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -162,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,10 +497,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -484,13 +513,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -521,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -535,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -549,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -563,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -577,10 +606,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -588,10 +617,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -599,13 +628,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -613,13 +642,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -630,10 +659,52 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
